--- a/Benchmark/OEQ_Benchmark/position.xlsx
+++ b/Benchmark/OEQ_Benchmark/position.xlsx
@@ -25,160 +25,160 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>position_0.png</t>
-  </si>
-  <si>
-    <t>position_1.png</t>
-  </si>
-  <si>
-    <t>position_2.png</t>
-  </si>
-  <si>
-    <t>position_3.png</t>
-  </si>
-  <si>
-    <t>position_4.png</t>
-  </si>
-  <si>
-    <t>position_5.png</t>
-  </si>
-  <si>
-    <t>position_6.png</t>
-  </si>
-  <si>
-    <t>position_7.png</t>
-  </si>
-  <si>
-    <t>position_8.png</t>
-  </si>
-  <si>
-    <t>position_9.png</t>
-  </si>
-  <si>
-    <t>position_10.png</t>
-  </si>
-  <si>
-    <t>position_11.png</t>
-  </si>
-  <si>
-    <t>position_12.png</t>
-  </si>
-  <si>
-    <t>position_13.png</t>
-  </si>
-  <si>
-    <t>position_14.png</t>
-  </si>
-  <si>
-    <t>position_15.png</t>
-  </si>
-  <si>
-    <t>position_16.png</t>
-  </si>
-  <si>
-    <t>position_17.png</t>
-  </si>
-  <si>
-    <t>position_18.png</t>
-  </si>
-  <si>
-    <t>position_19.png</t>
-  </si>
-  <si>
-    <t>position_20.png</t>
-  </si>
-  <si>
-    <t>position_21.png</t>
-  </si>
-  <si>
-    <t>position_22.png</t>
-  </si>
-  <si>
-    <t>position_23.png</t>
-  </si>
-  <si>
-    <t>position_24.png</t>
-  </si>
-  <si>
-    <t>position_25.png</t>
-  </si>
-  <si>
-    <t>position_26.png</t>
-  </si>
-  <si>
-    <t>position_27.png</t>
-  </si>
-  <si>
-    <t>position_28.png</t>
-  </si>
-  <si>
-    <t>position_29.png</t>
-  </si>
-  <si>
-    <t>position_30.png</t>
-  </si>
-  <si>
-    <t>position_31.png</t>
-  </si>
-  <si>
-    <t>position_32.png</t>
-  </si>
-  <si>
-    <t>position_33.png</t>
-  </si>
-  <si>
-    <t>position_34.png</t>
-  </si>
-  <si>
-    <t>position_35.png</t>
-  </si>
-  <si>
-    <t>position_36.png</t>
-  </si>
-  <si>
-    <t>position_37.png</t>
-  </si>
-  <si>
-    <t>position_38.png</t>
-  </si>
-  <si>
-    <t>position_39.png</t>
-  </si>
-  <si>
-    <t>position_40.png</t>
-  </si>
-  <si>
-    <t>position_41.png</t>
-  </si>
-  <si>
-    <t>position_42.png</t>
-  </si>
-  <si>
-    <t>position_43.png</t>
-  </si>
-  <si>
-    <t>position_44.png</t>
-  </si>
-  <si>
-    <t>position_45.png</t>
-  </si>
-  <si>
-    <t>position_46.png</t>
-  </si>
-  <si>
-    <t>position_47.png</t>
-  </si>
-  <si>
-    <t>position_48.png</t>
-  </si>
-  <si>
-    <t>position_49.png</t>
-  </si>
-  <si>
-    <t>position_50.png</t>
-  </si>
-  <si>
-    <t>position_51.png</t>
+    <t>position/position_0.png</t>
+  </si>
+  <si>
+    <t>position/position_1.png</t>
+  </si>
+  <si>
+    <t>position/position_2.png</t>
+  </si>
+  <si>
+    <t>position/position_3.png</t>
+  </si>
+  <si>
+    <t>position/position_4.png</t>
+  </si>
+  <si>
+    <t>position/position_5.png</t>
+  </si>
+  <si>
+    <t>position/position_6.png</t>
+  </si>
+  <si>
+    <t>position/position_7.png</t>
+  </si>
+  <si>
+    <t>position/position_8.png</t>
+  </si>
+  <si>
+    <t>position/position_9.png</t>
+  </si>
+  <si>
+    <t>position/position_10.png</t>
+  </si>
+  <si>
+    <t>position/position_11.png</t>
+  </si>
+  <si>
+    <t>position/position_12.png</t>
+  </si>
+  <si>
+    <t>position/position_13.png</t>
+  </si>
+  <si>
+    <t>position/position_14.png</t>
+  </si>
+  <si>
+    <t>position/position_15.png</t>
+  </si>
+  <si>
+    <t>position/position_16.png</t>
+  </si>
+  <si>
+    <t>position/position_17.png</t>
+  </si>
+  <si>
+    <t>position/position_18.png</t>
+  </si>
+  <si>
+    <t>position/position_19.png</t>
+  </si>
+  <si>
+    <t>position/position_20.png</t>
+  </si>
+  <si>
+    <t>position/position_21.png</t>
+  </si>
+  <si>
+    <t>position/position_22.png</t>
+  </si>
+  <si>
+    <t>position/position_23.png</t>
+  </si>
+  <si>
+    <t>position/position_24.png</t>
+  </si>
+  <si>
+    <t>position/position_25.png</t>
+  </si>
+  <si>
+    <t>position/position_26.png</t>
+  </si>
+  <si>
+    <t>position/position_27.png</t>
+  </si>
+  <si>
+    <t>position/position_28.png</t>
+  </si>
+  <si>
+    <t>position/position_29.png</t>
+  </si>
+  <si>
+    <t>position/position_30.png</t>
+  </si>
+  <si>
+    <t>position/position_31.png</t>
+  </si>
+  <si>
+    <t>position/position_32.png</t>
+  </si>
+  <si>
+    <t>position/position_33.png</t>
+  </si>
+  <si>
+    <t>position/position_34.png</t>
+  </si>
+  <si>
+    <t>position/position_35.png</t>
+  </si>
+  <si>
+    <t>position/position_36.png</t>
+  </si>
+  <si>
+    <t>position/position_37.png</t>
+  </si>
+  <si>
+    <t>position/position_38.png</t>
+  </si>
+  <si>
+    <t>position/position_39.png</t>
+  </si>
+  <si>
+    <t>position/position_40.png</t>
+  </si>
+  <si>
+    <t>position/position_41.png</t>
+  </si>
+  <si>
+    <t>position/position_42.png</t>
+  </si>
+  <si>
+    <t>position/position_43.png</t>
+  </si>
+  <si>
+    <t>position/position_44.png</t>
+  </si>
+  <si>
+    <t>position/position_45.png</t>
+  </si>
+  <si>
+    <t>position/position_46.png</t>
+  </si>
+  <si>
+    <t>position/position_47.png</t>
+  </si>
+  <si>
+    <t>position/position_48.png</t>
+  </si>
+  <si>
+    <t>position/position_49.png</t>
+  </si>
+  <si>
+    <t>position/position_50.png</t>
+  </si>
+  <si>
+    <t>position/position_51.png</t>
   </si>
   <si>
     <t>Regardless of the positional relationship of the actual scene in reality, from the camera's perspective in the photo, is the apple positioned above the blue vase?</t>

--- a/Benchmark/OEQ_Benchmark/position.xlsx
+++ b/Benchmark/OEQ_Benchmark/position.xlsx
@@ -25,160 +25,160 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>position/position_0.png</t>
-  </si>
-  <si>
-    <t>position/position_1.png</t>
-  </si>
-  <si>
-    <t>position/position_2.png</t>
-  </si>
-  <si>
-    <t>position/position_3.png</t>
-  </si>
-  <si>
-    <t>position/position_4.png</t>
-  </si>
-  <si>
-    <t>position/position_5.png</t>
-  </si>
-  <si>
-    <t>position/position_6.png</t>
-  </si>
-  <si>
-    <t>position/position_7.png</t>
-  </si>
-  <si>
-    <t>position/position_8.png</t>
-  </si>
-  <si>
-    <t>position/position_9.png</t>
-  </si>
-  <si>
-    <t>position/position_10.png</t>
-  </si>
-  <si>
-    <t>position/position_11.png</t>
-  </si>
-  <si>
-    <t>position/position_12.png</t>
-  </si>
-  <si>
-    <t>position/position_13.png</t>
-  </si>
-  <si>
-    <t>position/position_14.png</t>
-  </si>
-  <si>
-    <t>position/position_15.png</t>
-  </si>
-  <si>
-    <t>position/position_16.png</t>
-  </si>
-  <si>
-    <t>position/position_17.png</t>
-  </si>
-  <si>
-    <t>position/position_18.png</t>
-  </si>
-  <si>
-    <t>position/position_19.png</t>
-  </si>
-  <si>
-    <t>position/position_20.png</t>
-  </si>
-  <si>
-    <t>position/position_21.png</t>
-  </si>
-  <si>
-    <t>position/position_22.png</t>
-  </si>
-  <si>
-    <t>position/position_23.png</t>
-  </si>
-  <si>
-    <t>position/position_24.png</t>
-  </si>
-  <si>
-    <t>position/position_25.png</t>
-  </si>
-  <si>
-    <t>position/position_26.png</t>
-  </si>
-  <si>
-    <t>position/position_27.png</t>
-  </si>
-  <si>
-    <t>position/position_28.png</t>
-  </si>
-  <si>
-    <t>position/position_29.png</t>
-  </si>
-  <si>
-    <t>position/position_30.png</t>
-  </si>
-  <si>
-    <t>position/position_31.png</t>
-  </si>
-  <si>
-    <t>position/position_32.png</t>
-  </si>
-  <si>
-    <t>position/position_33.png</t>
-  </si>
-  <si>
-    <t>position/position_34.png</t>
-  </si>
-  <si>
-    <t>position/position_35.png</t>
-  </si>
-  <si>
-    <t>position/position_36.png</t>
-  </si>
-  <si>
-    <t>position/position_37.png</t>
-  </si>
-  <si>
-    <t>position/position_38.png</t>
-  </si>
-  <si>
-    <t>position/position_39.png</t>
-  </si>
-  <si>
-    <t>position/position_40.png</t>
-  </si>
-  <si>
-    <t>position/position_41.png</t>
-  </si>
-  <si>
-    <t>position/position_42.png</t>
-  </si>
-  <si>
-    <t>position/position_43.png</t>
-  </si>
-  <si>
-    <t>position/position_44.png</t>
-  </si>
-  <si>
-    <t>position/position_45.png</t>
-  </si>
-  <si>
-    <t>position/position_46.png</t>
-  </si>
-  <si>
-    <t>position/position_47.png</t>
-  </si>
-  <si>
-    <t>position/position_48.png</t>
-  </si>
-  <si>
-    <t>position/position_49.png</t>
-  </si>
-  <si>
-    <t>position/position_50.png</t>
-  </si>
-  <si>
-    <t>position/position_51.png</t>
+    <t>position_0.png</t>
+  </si>
+  <si>
+    <t>position_1.png</t>
+  </si>
+  <si>
+    <t>position_2.png</t>
+  </si>
+  <si>
+    <t>position_3.png</t>
+  </si>
+  <si>
+    <t>position_4.png</t>
+  </si>
+  <si>
+    <t>position_5.png</t>
+  </si>
+  <si>
+    <t>position_6.png</t>
+  </si>
+  <si>
+    <t>position_7.png</t>
+  </si>
+  <si>
+    <t>position_8.png</t>
+  </si>
+  <si>
+    <t>position_9.png</t>
+  </si>
+  <si>
+    <t>position_10.png</t>
+  </si>
+  <si>
+    <t>position_11.png</t>
+  </si>
+  <si>
+    <t>position_12.png</t>
+  </si>
+  <si>
+    <t>position_13.png</t>
+  </si>
+  <si>
+    <t>position_14.png</t>
+  </si>
+  <si>
+    <t>position_15.png</t>
+  </si>
+  <si>
+    <t>position_16.png</t>
+  </si>
+  <si>
+    <t>position_17.png</t>
+  </si>
+  <si>
+    <t>position_18.png</t>
+  </si>
+  <si>
+    <t>position_19.png</t>
+  </si>
+  <si>
+    <t>position_20.png</t>
+  </si>
+  <si>
+    <t>position_21.png</t>
+  </si>
+  <si>
+    <t>position_22.png</t>
+  </si>
+  <si>
+    <t>position_23.png</t>
+  </si>
+  <si>
+    <t>position_24.png</t>
+  </si>
+  <si>
+    <t>position_25.png</t>
+  </si>
+  <si>
+    <t>position_26.png</t>
+  </si>
+  <si>
+    <t>position_27.png</t>
+  </si>
+  <si>
+    <t>position_28.png</t>
+  </si>
+  <si>
+    <t>position_29.png</t>
+  </si>
+  <si>
+    <t>position_30.png</t>
+  </si>
+  <si>
+    <t>position_31.png</t>
+  </si>
+  <si>
+    <t>position_32.png</t>
+  </si>
+  <si>
+    <t>position_33.png</t>
+  </si>
+  <si>
+    <t>position_34.png</t>
+  </si>
+  <si>
+    <t>position_35.png</t>
+  </si>
+  <si>
+    <t>position_36.png</t>
+  </si>
+  <si>
+    <t>position_37.png</t>
+  </si>
+  <si>
+    <t>position_38.png</t>
+  </si>
+  <si>
+    <t>position_39.png</t>
+  </si>
+  <si>
+    <t>position_40.png</t>
+  </si>
+  <si>
+    <t>position_41.png</t>
+  </si>
+  <si>
+    <t>position_42.png</t>
+  </si>
+  <si>
+    <t>position_43.png</t>
+  </si>
+  <si>
+    <t>position_44.png</t>
+  </si>
+  <si>
+    <t>position_45.png</t>
+  </si>
+  <si>
+    <t>position_46.png</t>
+  </si>
+  <si>
+    <t>position_47.png</t>
+  </si>
+  <si>
+    <t>position_48.png</t>
+  </si>
+  <si>
+    <t>position_49.png</t>
+  </si>
+  <si>
+    <t>position_50.png</t>
+  </si>
+  <si>
+    <t>position_51.png</t>
   </si>
   <si>
     <t>Regardless of the positional relationship of the actual scene in reality, from the camera's perspective in the photo, is the apple positioned above the blue vase?</t>
